--- a/Input_Data/GB_Network_29bus/GB_Transmission_Network_29_Bus.xlsx
+++ b/Input_Data/GB_Network_29bus/GB_Transmission_Network_29_Bus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents_Unsynced\Python_Projects\Investment_Planning_Model\investment_planning_model\Input_Data\GB_Network_29bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC8835B-29A1-47B5-A956-BB926D14AC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F58723A-0D73-4121-97EF-293CCD09AB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_values" sheetId="1" r:id="rId1"/>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F290B48-A8E1-43D7-A531-2D8691AE6FE2}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -602,10 +602,10 @@
         <v>0.5</v>
       </c>
       <c r="H2">
-        <v>-3.7309283</v>
+        <v>-4.67</v>
       </c>
       <c r="I2">
-        <v>50.471673299999999</v>
+        <v>50.35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -631,10 +631,10 @@
         <v>0.5</v>
       </c>
       <c r="H3">
-        <v>-3.1368499999999999</v>
+        <v>-1.75</v>
       </c>
       <c r="I3">
-        <v>51.203884000000002</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -660,10 +660,10 @@
         <v>0.5</v>
       </c>
       <c r="H4">
-        <v>-3.4032144</v>
+        <v>-3.32</v>
       </c>
       <c r="I4">
-        <v>51.388336600000002</v>
+        <v>50.690000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -689,10 +689,10 @@
         <v>0.5</v>
       </c>
       <c r="H5">
-        <v>-3.687792</v>
+        <v>-0.44</v>
       </c>
       <c r="I5">
-        <v>52.535903699999999</v>
+        <v>50.52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -718,10 +718,10 @@
         <v>0.5</v>
       </c>
       <c r="H6">
-        <v>-4.1364786999999996</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>51.005904899999997</v>
+        <v>50.95</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -747,10 +747,10 @@
         <v>0.5</v>
       </c>
       <c r="H7">
-        <v>-1.0957412</v>
+        <v>-0.05</v>
       </c>
       <c r="I7">
-        <v>52.530187599999998</v>
+        <v>51.370000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -776,10 +776,10 @@
         <v>0.5</v>
       </c>
       <c r="H8">
-        <v>-2.9246376999999999</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="I8">
-        <v>50.786499800000001</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -805,10 +805,10 @@
         <v>0.5</v>
       </c>
       <c r="H9">
-        <v>-3.8324674999999999</v>
+        <v>-4.37</v>
       </c>
       <c r="I9">
-        <v>51.316997600000001</v>
+        <v>51.67</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -834,10 +834,10 @@
         <v>0.5</v>
       </c>
       <c r="H10">
-        <v>-2.7561477999999999</v>
+        <v>-0.7</v>
       </c>
       <c r="I10">
-        <v>53.743254299999997</v>
+        <v>51.79</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -863,10 +863,10 @@
         <v>0.5</v>
       </c>
       <c r="H11">
-        <v>-2.7417929999999999</v>
+        <v>-2.4</v>
       </c>
       <c r="I11">
-        <v>54.047049000000001</v>
+        <v>51.71</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -892,10 +892,10 @@
         <v>0.5</v>
       </c>
       <c r="H12">
-        <v>1.3441399999999999</v>
+        <v>0.35</v>
       </c>
       <c r="I12">
-        <v>51.311549999999997</v>
+        <v>52.22</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -921,10 +921,10 @@
         <v>0.5</v>
       </c>
       <c r="H13">
-        <v>-2.3588399999999998</v>
+        <v>0.87</v>
       </c>
       <c r="I13">
-        <v>53.539050000000003</v>
+        <v>52.980000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -950,10 +950,10 @@
         <v>0.5</v>
       </c>
       <c r="H14">
-        <v>-2.8412730000000002</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="I14">
-        <v>51.339275999999998</v>
+        <v>52.56</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -979,10 +979,10 @@
         <v>0.5</v>
       </c>
       <c r="H15">
-        <v>-1.2377826000000001</v>
+        <v>-1.62</v>
       </c>
       <c r="I15">
-        <v>53.6055098</v>
+        <v>52.56</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
@@ -1008,10 +1008,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>-1.2668429000000001</v>
+        <v>-1.88</v>
       </c>
       <c r="I16">
-        <v>53.7563338</v>
+        <v>52.13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -1037,10 +1037,10 @@
         <v>0.5</v>
       </c>
       <c r="H17">
-        <v>-1.8523677000000001</v>
+        <v>-2.8</v>
       </c>
       <c r="I17">
-        <v>52.506843000000003</v>
+        <v>52.980000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
@@ -1066,10 +1066,10 @@
         <v>0.5</v>
       </c>
       <c r="H18">
-        <v>-1.4579907999999999</v>
+        <v>-1.88</v>
       </c>
       <c r="I18">
-        <v>54.880797999999999</v>
+        <v>52.980000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
@@ -1095,10 +1095,10 @@
         <v>0.5</v>
       </c>
       <c r="H19">
-        <v>-2.0230397999999998</v>
+        <v>-0.83</v>
       </c>
       <c r="I19">
-        <v>52.499436299999999</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -1124,10 +1124,10 @@
         <v>0.5</v>
       </c>
       <c r="H20">
-        <v>-1.598063</v>
+        <v>-4.5</v>
       </c>
       <c r="I20">
-        <v>53.806248699999998</v>
+        <v>53.07</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -1153,10 +1153,10 @@
         <v>0.5</v>
       </c>
       <c r="H21">
-        <v>-1.1317391999999999</v>
+        <v>-3.06</v>
       </c>
       <c r="I21">
-        <v>54.566970599999998</v>
+        <v>53.660000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
@@ -1182,10 +1182,10 @@
         <v>0.5</v>
       </c>
       <c r="H22">
-        <v>-0.49886560000000002</v>
+        <v>-2.3588399999999998</v>
       </c>
       <c r="I22">
-        <v>51.544126499999997</v>
+        <v>53.539050000000003</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
@@ -1211,10 +1211,10 @@
         <v>0.5</v>
       </c>
       <c r="H23">
-        <v>-0.75620799999999999</v>
+        <v>-1.49</v>
       </c>
       <c r="I23">
-        <v>53.598061899999998</v>
+        <v>53.57</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
@@ -1240,10 +1240,10 @@
         <v>0.5</v>
       </c>
       <c r="H24">
-        <v>-0.2961377</v>
+        <v>-0.31</v>
       </c>
       <c r="I24">
-        <v>51.501852999999997</v>
+        <v>53.57</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
@@ -1269,10 +1269,10 @@
         <v>0.5</v>
       </c>
       <c r="H25">
-        <v>-0.30164459999999998</v>
+        <v>-0.96</v>
       </c>
       <c r="I25">
-        <v>53.214646999999999</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -1298,10 +1298,10 @@
         <v>0.5</v>
       </c>
       <c r="H26">
-        <v>-0.2384869</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="I26">
-        <v>53.638412099999996</v>
+        <v>54.08</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -1327,10 +1327,10 @@
         <v>0.5</v>
       </c>
       <c r="H27">
-        <v>0.15460160000000001</v>
+        <v>-2.67</v>
       </c>
       <c r="I27">
-        <v>51.432685800000002</v>
+        <v>54.85</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
@@ -1356,10 +1356,10 @@
         <v>0.5</v>
       </c>
       <c r="H28">
-        <v>-1.2320606999999999</v>
+        <v>-1.23</v>
       </c>
       <c r="I28">
-        <v>50.884506600000002</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
@@ -1385,10 +1385,10 @@
         <v>0.5</v>
       </c>
       <c r="H29">
-        <v>0.31190000000000001</v>
+        <v>-0.44</v>
       </c>
       <c r="I29">
-        <v>51.490805000000002</v>
+        <v>54.76</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
@@ -1414,14 +1414,15 @@
         <v>0.5</v>
       </c>
       <c r="H30">
-        <v>0.50670380000000004</v>
+        <v>0.21</v>
       </c>
       <c r="I30">
-        <v>51.512869000000002</v>
+        <v>54.08</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1429,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1720D-7D07-42E6-8F89-C1A31D3BEF41}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>

--- a/Input_Data/GB_Network_29bus/GB_Transmission_Network_29_Bus.xlsx
+++ b/Input_Data/GB_Network_29bus/GB_Transmission_Network_29_Bus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents_Unsynced\Python_Projects\Investment_Planning_Model\investment_planning_model\Input_Data\GB_Network_29bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F58723A-0D73-4121-97EF-293CCD09AB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E563BCCC-1FEA-4632-ACBC-A1F375E8AE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F290B48-A8E1-43D7-A531-2D8691AE6FE2}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Input_Data/GB_Network_29bus/GB_Transmission_Network_29_Bus.xlsx
+++ b/Input_Data/GB_Network_29bus/GB_Transmission_Network_29_Bus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents_Unsynced\Python_Projects\Investment_Planning_Model\investment_planning_model\Input_Data\GB_Network_29bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E563BCCC-1FEA-4632-ACBC-A1F375E8AE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F58723A-0D73-4121-97EF-293CCD09AB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F290B48-A8E1-43D7-A531-2D8691AE6FE2}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Input_Data/GB_Network_29bus/GB_Transmission_Network_29_Bus.xlsx
+++ b/Input_Data/GB_Network_29bus/GB_Transmission_Network_29_Bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents_Unsynced\Python_Projects\Investment_Planning_Model\investment_planning_model\Input_Data\GB_Network_29bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F58723A-0D73-4121-97EF-293CCD09AB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A0BD58-AE02-419D-A08A-0A1CEC639D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="-18790" windowWidth="28800" windowHeight="15290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_values" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -537,16 +537,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F290B48-A8E1-43D7-A531-2D8691AE6FE2}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="9.1328125" customWidth="1"/>
     <col min="3" max="5" width="13.59765625" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -602,10 +602,10 @@
         <v>0.5</v>
       </c>
       <c r="H2">
-        <v>-4.67</v>
+        <v>-5.367</v>
       </c>
       <c r="I2">
-        <v>50.35</v>
+        <v>57.48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -631,10 +631,10 @@
         <v>0.5</v>
       </c>
       <c r="H3">
-        <v>-1.75</v>
+        <v>-2.8858999999999999</v>
       </c>
       <c r="I3">
-        <v>50.1</v>
+        <v>57.5595</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -660,10 +660,10 @@
         <v>0.5</v>
       </c>
       <c r="H4">
-        <v>-3.32</v>
+        <v>-4.9462999999999999</v>
       </c>
       <c r="I4">
-        <v>50.690000000000005</v>
+        <v>56.916899999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -689,10 +689,10 @@
         <v>0.5</v>
       </c>
       <c r="H5">
-        <v>-0.44</v>
+        <v>-4.7636000000000003</v>
       </c>
       <c r="I5">
-        <v>50.52</v>
+        <v>56.442999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -718,10 +718,10 @@
         <v>0.5</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>-5.5654000000000003</v>
       </c>
       <c r="I6">
-        <v>50.95</v>
+        <v>56.025500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -747,10 +747,10 @@
         <v>0.5</v>
       </c>
       <c r="H7">
-        <v>-0.05</v>
+        <v>-4.7736999999999998</v>
       </c>
       <c r="I7">
-        <v>51.370000000000005</v>
+        <v>55.798000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -776,10 +776,10 @@
         <v>0.5</v>
       </c>
       <c r="H8">
-        <v>-2.0499999999999998</v>
+        <v>-3.1903999999999999</v>
       </c>
       <c r="I8">
-        <v>51.2</v>
+        <v>55.951700000000002</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -805,10 +805,10 @@
         <v>0.5</v>
       </c>
       <c r="H9">
-        <v>-4.37</v>
+        <v>-2.8351000000000002</v>
       </c>
       <c r="I9">
-        <v>51.67</v>
+        <v>55.758000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -834,10 +834,10 @@
         <v>0.5</v>
       </c>
       <c r="H10">
-        <v>-0.7</v>
+        <v>-3.8704000000000001</v>
       </c>
       <c r="I10">
-        <v>51.79</v>
+        <v>55.049199999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -863,10 +863,10 @@
         <v>0.5</v>
       </c>
       <c r="H11">
-        <v>-2.4</v>
+        <v>-2.6118000000000001</v>
       </c>
       <c r="I11">
-        <v>51.71</v>
+        <v>55.182699999999997</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -892,10 +892,10 @@
         <v>0.5</v>
       </c>
       <c r="H12">
-        <v>0.35</v>
+        <v>-2.7742</v>
       </c>
       <c r="I12">
-        <v>52.22</v>
+        <v>54.042499999999997</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -921,10 +921,10 @@
         <v>0.5</v>
       </c>
       <c r="H13">
-        <v>0.87</v>
+        <v>-4.1546000000000003</v>
       </c>
       <c r="I13">
-        <v>52.980000000000004</v>
+        <v>53.218000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -950,10 +950,10 @@
         <v>0.5</v>
       </c>
       <c r="H14">
-        <v>-0.56999999999999995</v>
+        <v>-2.2437999999999998</v>
       </c>
       <c r="I14">
-        <v>52.56</v>
+        <v>53.4786</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -979,10 +979,10 @@
         <v>0.5</v>
       </c>
       <c r="H15">
-        <v>-1.62</v>
+        <v>-1.5489999999999999</v>
       </c>
       <c r="I15">
-        <v>52.56</v>
+        <v>53.780999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
@@ -1008,10 +1008,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>-1.88</v>
+        <v>-1.3819999999999999</v>
       </c>
       <c r="I16">
-        <v>52.13</v>
+        <v>54.225999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -1037,10 +1037,10 @@
         <v>0.5</v>
       </c>
       <c r="H17">
-        <v>-2.8</v>
+        <v>-0.35599999999999998</v>
       </c>
       <c r="I17">
-        <v>52.980000000000004</v>
+        <v>53.750999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
@@ -1066,10 +1066,10 @@
         <v>0.5</v>
       </c>
       <c r="H18">
-        <v>-1.88</v>
+        <v>-2.0333000000000001</v>
       </c>
       <c r="I18">
-        <v>52.980000000000004</v>
+        <v>53.087200000000003</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
@@ -1095,10 +1095,10 @@
         <v>0.5</v>
       </c>
       <c r="H19">
-        <v>-0.83</v>
+        <v>-2.8858999999999999</v>
       </c>
       <c r="I19">
-        <v>52.9</v>
+        <v>52.349400000000003</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -1124,10 +1124,10 @@
         <v>0.5</v>
       </c>
       <c r="H20">
-        <v>-4.5</v>
+        <v>-0.19620000000000001</v>
       </c>
       <c r="I20">
-        <v>53.07</v>
+        <v>52.9039</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -1153,10 +1153,10 @@
         <v>0.5</v>
       </c>
       <c r="H21">
-        <v>-3.06</v>
+        <v>0.72740000000000005</v>
       </c>
       <c r="I21">
-        <v>53.660000000000004</v>
+        <v>52.2532</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
@@ -1182,10 +1182,10 @@
         <v>0.5</v>
       </c>
       <c r="H22">
-        <v>-2.3588399999999998</v>
+        <v>-0.66310000000000002</v>
       </c>
       <c r="I22">
-        <v>53.539050000000003</v>
+        <v>52.122500000000002</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
@@ -1211,10 +1211,10 @@
         <v>0.5</v>
       </c>
       <c r="H23">
-        <v>-1.49</v>
+        <v>-1.2315</v>
       </c>
       <c r="I23">
-        <v>53.57</v>
+        <v>51.8538</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
@@ -1240,10 +1240,10 @@
         <v>0.5</v>
       </c>
       <c r="H24">
-        <v>-0.31</v>
+        <v>-3.1802000000000001</v>
       </c>
       <c r="I24">
-        <v>53.57</v>
+        <v>51.488700000000001</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
@@ -1269,10 +1269,10 @@
         <v>0.5</v>
       </c>
       <c r="H25">
-        <v>-0.96</v>
+        <v>-1.6983999999999999</v>
       </c>
       <c r="I25">
-        <v>54</v>
+        <v>51.390599999999999</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -1298,10 +1298,10 @@
         <v>0.5</v>
       </c>
       <c r="H26">
-        <v>-2.0099999999999998</v>
+        <v>-0.78490000000000004</v>
       </c>
       <c r="I26">
-        <v>54.08</v>
+        <v>51.539200000000001</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -1327,10 +1327,10 @@
         <v>0.5</v>
       </c>
       <c r="H27">
-        <v>-2.67</v>
+        <v>0.1996</v>
       </c>
       <c r="I27">
-        <v>54.85</v>
+        <v>51.381100000000004</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
@@ -1356,10 +1356,10 @@
         <v>0.5</v>
       </c>
       <c r="H28">
-        <v>-1.23</v>
+        <v>0.71730000000000005</v>
       </c>
       <c r="I28">
-        <v>55.1</v>
+        <v>50.9771</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
@@ -1385,10 +1385,10 @@
         <v>0.5</v>
       </c>
       <c r="H29">
-        <v>-0.44</v>
+        <v>-1.7999000000000001</v>
       </c>
       <c r="I29">
-        <v>54.76</v>
+        <v>50.823500000000003</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
@@ -1414,10 +1414,10 @@
         <v>0.5</v>
       </c>
       <c r="H30">
-        <v>0.21</v>
+        <v>-3.3426</v>
       </c>
       <c r="I30">
-        <v>54.08</v>
+        <v>50.9131</v>
       </c>
     </row>
   </sheetData>
@@ -1443,7 +1443,7 @@
     <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4962,13 +4962,13 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="10.59765625" customWidth="1"/>
-    <col min="4" max="4" width="12.06640625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="8" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5009,23 +5009,23 @@
         <v>101.73913042728113</v>
       </c>
       <c r="D2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E30" si="0">B2*D2</f>
-        <v>430.1021738239632</v>
+        <v>452.73913034101389</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F30" si="1">C2*D2</f>
-        <v>96.652173905917067</v>
+        <v>101.73913042728113</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G30" si="2">B2*SQRT(1-D2^2)</f>
-        <v>141.3677481388132</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H30" si="3">C2*SQRT(1-D2^2)</f>
-        <v>31.768033293858217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -5039,23 +5039,23 @@
         <v>111.521739122212</v>
       </c>
       <c r="D3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>471.45815207626731</v>
+        <v>496.2717390276498</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>105.9456521661014</v>
+        <v>111.521739122212</v>
       </c>
       <c r="G3">
         <f t="shared" si="2"/>
-        <v>154.96080084446828</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" si="3"/>
-        <v>34.822651879806116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -5069,23 +5069,23 @@
         <v>120.65217390414747</v>
       </c>
       <c r="D4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>510.05706511175111</v>
+        <v>536.90217380184333</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>114.6195652089401</v>
+        <v>120.65217390414747</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>167.64765003641307</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>37.673629226690828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -5099,23 +5099,23 @@
         <v>284.34782606599083</v>
       </c>
       <c r="D5">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1202.0804345336405</v>
+        <v>1265.3478258248849</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>270.13043476269127</v>
+        <v>284.34782606599083</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>395.10473197770864</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>88.787580231552454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -5129,23 +5129,23 @@
         <v>109.13043477456222</v>
       </c>
       <c r="D6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>461.34891294792624</v>
+        <v>485.63043468202767</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>103.6739130358341</v>
+        <v>109.13043477456222</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>151.63805462753038</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>34.075967336574408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -5159,23 +5159,23 @@
         <v>255.6521738941936</v>
       </c>
       <c r="D7">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1080.7695649935483</v>
+        <v>1137.6521736774193</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>242.8695651994839</v>
+        <v>255.6521738941936</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>355.2317773744536</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>79.827365712771922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -5189,23 +5189,23 @@
         <v>161.95652172718897</v>
       </c>
       <c r="D8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>684.67119551036876</v>
+        <v>720.70652158986184</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>153.85869564082952</v>
+        <v>161.95652172718897</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>225.04053923806799</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>50.570907700693098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -5219,23 +5219,23 @@
         <v>217.39130433179727</v>
       </c>
       <c r="D9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>919.02173894009229</v>
+        <v>967.39130414746558</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>206.5217391152074</v>
+        <v>217.39130433179727</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>302.06783790344701</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>67.88041302106457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -5249,23 +5249,23 @@
         <v>28.260869563133642</v>
       </c>
       <c r="D10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>119.47282606221198</v>
+        <v>125.76086953917051</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>26.847826084976958</v>
+        <v>28.260869563133642</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>39.268818927448102</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>8.824453692738393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -5279,23 +5279,23 @@
         <v>556.73913039373281</v>
       </c>
       <c r="D11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>2353.6146734255763</v>
+        <v>2477.4891299216592</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>528.90217387404618</v>
+        <v>556.73913039373281</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>773.59573287072772</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>173.84173774694634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -5309,23 +5309,23 @@
         <v>730.43478255483876</v>
       </c>
       <c r="D12">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>3087.9130428387098</v>
+        <v>3250.4347819354844</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>693.9130434270968</v>
+        <v>730.43478255483876</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>1014.9479353555819</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>228.07818775077692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -5339,23 +5339,23 @@
         <v>258.47826085050696</v>
       </c>
       <c r="D13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>1092.7168475997696</v>
+        <v>1150.2282606313365</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>245.5543478079816</v>
+        <v>258.47826085050696</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>359.15865926719846</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>80.709811082045761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -5369,23 +5369,23 @@
         <v>548.69565213345629</v>
       </c>
       <c r="D14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>2319.6108690847927</v>
+        <v>2441.695651668203</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>521.26086952678349</v>
+        <v>548.69565213345629</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>762.41922286830015</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>171.33016246516695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -5399,23 +5399,23 @@
         <v>398.04347823152074</v>
       </c>
       <c r="D15">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1682.7288039993089</v>
+        <v>1771.2934778940094</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>378.14130431994471</v>
+        <v>398.04347823152074</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>553.08621120121143</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>124.28903624156919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -5429,23 +5429,23 @@
         <v>572.39130430562216</v>
       </c>
       <c r="D16">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>2419.7842386292627</v>
+        <v>2547.1413038202768</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>543.77173909034104</v>
+        <v>572.39130430562216</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>795.34461719977594</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>178.72912748446296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -5459,23 +5459,23 @@
         <v>349.34782606119819</v>
       </c>
       <c r="D17">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1476.8679344767281</v>
+        <v>1554.597825764977</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>331.88043475813828</v>
+        <v>349.34782606119819</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>485.42301551083926</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>109.08382372485075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -5489,23 +5489,23 @@
         <v>234.99999998267285</v>
       </c>
       <c r="D18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>993.46249979423965</v>
+        <v>1045.7499997834102</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>223.2499999835392</v>
+        <v>234.99999998267285</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>326.53533277362618</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>73.37872647577079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -5519,23 +5519,23 @@
         <v>1165.6521738270969</v>
       </c>
       <c r="D19">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>4927.7945641967735</v>
+        <v>5187.1521728387097</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>1107.3695651357421</v>
+        <v>1165.6521738270969</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>1619.6877468382825</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>363.97477461894817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -5549,23 +5549,23 @@
         <v>438.91304344589867</v>
       </c>
       <c r="D20">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>1855.5048909200461</v>
+        <v>1953.1630430737328</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>416.96739127360371</v>
+        <v>438.91304344589867</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>609.87496472705936</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>137.05055388952934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -5579,23 +5579,23 @@
         <v>223.33913041831522</v>
       </c>
       <c r="D21">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>944.16617371749294</v>
+        <v>993.85913022893999</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>212.17217389739946</v>
+        <v>223.33913041831522</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>310.33241394848523</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>69.737621121320885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -5609,23 +5609,23 @@
         <v>152.60869564092167</v>
       </c>
       <c r="D22">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>645.15326073594474</v>
+        <v>679.10869551152086</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>144.97826085887559</v>
+        <v>152.60869564092167</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>212.05162220821978</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>47.652049940787315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -5639,23 +5639,23 @@
         <v>395.65217388387106</v>
       </c>
       <c r="D23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>1672.6195648709677</v>
+        <v>1760.6521735483871</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>375.86956518967747</v>
+        <v>395.65217388387106</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>549.76346498427347</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
-        <v>123.54235169833751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -5669,23 +5669,23 @@
         <v>1029.1304347067282</v>
       </c>
       <c r="D24">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>4350.6489121423965</v>
+        <v>4579.6304338341015</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>977.67391297139181</v>
+        <v>1029.1304347067282</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>1429.9891446349179</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>321.34587524171963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -5699,23 +5699,23 @@
         <v>308.26086954248854</v>
       </c>
       <c r="D25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>1303.1728258170508</v>
+        <v>1371.7608692811061</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>292.84782606536407</v>
+        <v>308.26086954248854</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>428.33219414708782</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>96.254425663869554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -5729,23 +5729,23 @@
         <v>2116.0869563657143</v>
       </c>
       <c r="D26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>8945.7576068428589</v>
+        <v>9416.5869545714304</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>2010.2826085474285</v>
+        <v>2116.0869563657143</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>2940.3283341521533</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
-        <v>660.74794034704234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -5759,23 +5759,23 @@
         <v>309.5652173684793</v>
       </c>
       <c r="D27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>1308.6869562506911</v>
+        <v>1377.5652171059908</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>294.08695650005529</v>
+        <v>309.5652173684793</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>430.14460117450847</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
-        <v>96.661708141995931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -5789,23 +5789,23 @@
         <v>99.347826079631346</v>
       </c>
       <c r="D28">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>419.99293469562213</v>
+        <v>442.09782599539176</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>94.380434775649775</v>
+        <v>99.347826079631346</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>138.04500192187527</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <f t="shared" si="3"/>
-        <v>31.021348750626505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -5819,23 +5819,23 @@
         <v>598.04347821677425</v>
       </c>
       <c r="D29">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>2528.2288038241941</v>
+        <v>2661.293477709678</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>568.14130430593548</v>
+        <v>598.04347821677425</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>830.98862207238267</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <f t="shared" si="3"/>
-        <v>186.7390162209486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
@@ -5849,23 +5849,23 @@
         <v>560.21739126304158</v>
       </c>
       <c r="D30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>2368.3190212486179</v>
+        <v>2492.9673907880187</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>532.20652169988944</v>
+        <v>560.21739126304158</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>778.42881827718293</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <f t="shared" si="3"/>
-        <v>174.92782435528338</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5878,7 +5878,7 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Input_Data/GB_Network_29bus/GB_Transmission_Network_29_Bus.xlsx
+++ b/Input_Data/GB_Network_29bus/GB_Transmission_Network_29_Bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents_Unsynced\Python_Projects\Investment_Planning_Model\investment_planning_model\Input_Data\GB_Network_29bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A0BD58-AE02-419D-A08A-0A1CEC639D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD477ABA-9AE6-41E0-8FB5-F85F3133833E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="-18790" windowWidth="28800" windowHeight="15290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_values" sheetId="1" r:id="rId1"/>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F290B48-A8E1-43D7-A531-2D8691AE6FE2}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1430,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1720D-7D07-42E6-8F89-C1A31D3BEF41}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -5875,10 +5875,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B76F648-0BE9-4818-BE21-E619EBC34941}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7409,6 +7409,121 @@
         <v>53.661538461538463</v>
       </c>
     </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>5000</v>
+      </c>
+      <c r="D67">
+        <v>-5000</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>5000</v>
+      </c>
+      <c r="D68">
+        <v>-5000</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>5000</v>
+      </c>
+      <c r="D69">
+        <v>-5000</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>26</v>
+      </c>
+      <c r="C70">
+        <v>5000</v>
+      </c>
+      <c r="D70">
+        <v>-5000</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>27</v>
+      </c>
+      <c r="C71">
+        <v>5000</v>
+      </c>
+      <c r="D71">
+        <v>-5000</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Input_Data/GB_Network_29bus/GB_Transmission_Network_29_Bus.xlsx
+++ b/Input_Data/GB_Network_29bus/GB_Transmission_Network_29_Bus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents_Unsynced\Python_Projects\Investment_Planning_Model\investment_planning_model\Input_Data\GB_Network_29bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD477ABA-9AE6-41E0-8FB5-F85F3133833E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F7C11-D68D-4E52-A3D5-F35587F8AE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>If Hardenable</t>
+  </si>
+  <si>
+    <t>interconnector</t>
   </si>
 </sst>
 </file>
@@ -5875,10 +5878,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B76F648-0BE9-4818-BE21-E619EBC34941}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7413,11 +7416,14 @@
       <c r="A67">
         <v>5</v>
       </c>
+      <c r="B67" t="s">
+        <v>39</v>
+      </c>
       <c r="C67">
         <v>5000</v>
       </c>
       <c r="D67">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -7434,10 +7440,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>39</v>
       </c>
       <c r="C68">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>-5000</v>
@@ -7452,18 +7461,21 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
       </c>
       <c r="C69">
         <v>5000</v>
       </c>
       <c r="D69">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -7480,10 +7492,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
       </c>
       <c r="C70">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>-5000</v>
@@ -7498,18 +7513,21 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
       </c>
       <c r="C71">
         <v>5000</v>
       </c>
       <c r="D71">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -7522,6 +7540,136 @@
       </c>
       <c r="H71">
         <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>-5000</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>26</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73">
+        <v>5000</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>26</v>
+      </c>
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>-5000</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75">
+        <v>5000</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>27</v>
+      </c>
+      <c r="B76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>-5000</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
